--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Fgf2-Fgfr1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Fgf2-Fgfr1.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.747119</v>
+        <v>0.456404</v>
       </c>
       <c r="H2">
-        <v>2.241357</v>
+        <v>1.369212</v>
       </c>
       <c r="I2">
-        <v>0.03096954854571248</v>
+        <v>0.01914960767004715</v>
       </c>
       <c r="J2">
-        <v>0.03096954854571248</v>
+        <v>0.01914960767004715</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.900730666666667</v>
+        <v>2.294987</v>
       </c>
       <c r="N2">
-        <v>17.702192</v>
+        <v>6.884961000000001</v>
       </c>
       <c r="O2">
-        <v>0.03970749001357476</v>
+        <v>0.0158275801650097</v>
       </c>
       <c r="P2">
-        <v>0.03970749001357476</v>
+        <v>0.0158275801650097</v>
       </c>
       <c r="Q2">
-        <v>4.408547994949333</v>
+        <v>1.047441246748</v>
       </c>
       <c r="R2">
-        <v>39.676931954544</v>
+        <v>9.426971220732002</v>
       </c>
       <c r="S2">
-        <v>0.001229723039603797</v>
+        <v>0.000303091950526156</v>
       </c>
       <c r="T2">
-        <v>0.001229723039603797</v>
+        <v>0.000303091950526156</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.747119</v>
+        <v>0.456404</v>
       </c>
       <c r="H3">
-        <v>2.241357</v>
+        <v>1.369212</v>
       </c>
       <c r="I3">
-        <v>0.03096954854571248</v>
+        <v>0.01914960767004715</v>
       </c>
       <c r="J3">
-        <v>0.03096954854571248</v>
+        <v>0.01914960767004715</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>334.775132</v>
       </c>
       <c r="O3">
-        <v>0.7509284844884279</v>
+        <v>0.769602070219672</v>
       </c>
       <c r="P3">
-        <v>0.7509284844884279</v>
+        <v>0.7696020702196722</v>
       </c>
       <c r="Q3">
-        <v>83.37228728156933</v>
+        <v>50.93090311510933</v>
       </c>
       <c r="R3">
-        <v>750.3505855341239</v>
+        <v>458.378128035984</v>
       </c>
       <c r="S3">
-        <v>0.02325591615472267</v>
+        <v>0.0147375777067628</v>
       </c>
       <c r="T3">
-        <v>0.02325591615472267</v>
+        <v>0.0147375777067628</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.747119</v>
+        <v>0.456404</v>
       </c>
       <c r="H4">
-        <v>2.241357</v>
+        <v>1.369212</v>
       </c>
       <c r="I4">
-        <v>0.03096954854571248</v>
+        <v>0.01914960767004715</v>
       </c>
       <c r="J4">
-        <v>0.03096954854571248</v>
+        <v>0.01914960767004715</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>31.11253633333334</v>
+        <v>31.11253633333333</v>
       </c>
       <c r="N4">
-        <v>93.33760900000001</v>
+        <v>93.337609</v>
       </c>
       <c r="O4">
-        <v>0.2093640254979974</v>
+        <v>0.2145703496153182</v>
       </c>
       <c r="P4">
-        <v>0.2093640254979974</v>
+        <v>0.2145703496153182</v>
       </c>
       <c r="Q4">
-        <v>23.24476703282367</v>
+        <v>14.19988603267867</v>
       </c>
       <c r="R4">
-        <v>209.202903295413</v>
+        <v>127.798974294108</v>
       </c>
       <c r="S4">
-        <v>0.006483909351386016</v>
+        <v>0.004108938012758197</v>
       </c>
       <c r="T4">
-        <v>0.006483909351386016</v>
+        <v>0.004108938012758197</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>59.23857700000001</v>
       </c>
       <c r="I5">
-        <v>0.8185184181638298</v>
+        <v>0.8285024587002443</v>
       </c>
       <c r="J5">
-        <v>0.8185184181638298</v>
+        <v>0.8285024587002443</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.900730666666667</v>
+        <v>2.294987</v>
       </c>
       <c r="N5">
-        <v>17.702192</v>
+        <v>6.884961000000001</v>
       </c>
       <c r="O5">
-        <v>0.03970749001357476</v>
+        <v>0.0158275801650097</v>
       </c>
       <c r="P5">
-        <v>0.03970749001357476</v>
+        <v>0.0158275801650097</v>
       </c>
       <c r="Q5">
-        <v>116.5169626511983</v>
+        <v>45.31725470449968</v>
       </c>
       <c r="R5">
-        <v>1048.652663860784</v>
+        <v>407.8552923404971</v>
       </c>
       <c r="S5">
-        <v>0.03250131191516728</v>
+        <v>0.01311318908198576</v>
       </c>
       <c r="T5">
-        <v>0.03250131191516728</v>
+        <v>0.01311318908198576</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>59.23857700000001</v>
       </c>
       <c r="I6">
-        <v>0.8185184181638298</v>
+        <v>0.8285024587002443</v>
       </c>
       <c r="J6">
-        <v>0.8185184181638298</v>
+        <v>0.8285024587002443</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>334.775132</v>
       </c>
       <c r="O6">
-        <v>0.7509284844884279</v>
+        <v>0.769602070219672</v>
       </c>
       <c r="P6">
-        <v>0.7509284844884279</v>
+        <v>0.7696020702196722</v>
       </c>
       <c r="Q6">
         <v>2203.511381629685</v>
@@ -818,10 +818,10 @@
         <v>19831.60243466717</v>
       </c>
       <c r="S6">
-        <v>0.6146487952776299</v>
+        <v>0.6376172073977963</v>
       </c>
       <c r="T6">
-        <v>0.6146487952776299</v>
+        <v>0.6376172073977965</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>59.23857700000001</v>
       </c>
       <c r="I7">
-        <v>0.8185184181638298</v>
+        <v>0.8285024587002443</v>
       </c>
       <c r="J7">
-        <v>0.8185184181638298</v>
+        <v>0.8285024587002443</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,16 +862,16 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>31.11253633333334</v>
+        <v>31.11253633333333</v>
       </c>
       <c r="N7">
-        <v>93.33760900000001</v>
+        <v>93.337609</v>
       </c>
       <c r="O7">
-        <v>0.2093640254979974</v>
+        <v>0.2145703496153182</v>
       </c>
       <c r="P7">
-        <v>0.2093640254979974</v>
+        <v>0.2145703496153182</v>
       </c>
       <c r="Q7">
         <v>614.3541264158216</v>
@@ -880,10 +880,10 @@
         <v>5529.187137742394</v>
       </c>
       <c r="S7">
-        <v>0.1713683109710326</v>
+        <v>0.1777720622204622</v>
       </c>
       <c r="T7">
-        <v>0.1713683109710326</v>
+        <v>0.1777720622204622</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>10.892997</v>
       </c>
       <c r="I8">
-        <v>0.1505120332904577</v>
+        <v>0.1523479336297086</v>
       </c>
       <c r="J8">
-        <v>0.1505120332904577</v>
+        <v>0.1523479336297086</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>5.900730666666667</v>
+        <v>2.294987</v>
       </c>
       <c r="N8">
-        <v>17.702192</v>
+        <v>6.884961000000001</v>
       </c>
       <c r="O8">
-        <v>0.03970749001357476</v>
+        <v>0.0158275801650097</v>
       </c>
       <c r="P8">
-        <v>0.03970749001357476</v>
+        <v>0.0158275801650097</v>
       </c>
       <c r="Q8">
-        <v>21.425547149936</v>
+        <v>8.333095502013002</v>
       </c>
       <c r="R8">
-        <v>192.829924349424</v>
+        <v>74.99785951811701</v>
       </c>
       <c r="S8">
-        <v>0.005976455058803683</v>
+        <v>0.002411299132497791</v>
       </c>
       <c r="T8">
-        <v>0.005976455058803682</v>
+        <v>0.002411299132497791</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>10.892997</v>
       </c>
       <c r="I9">
-        <v>0.1505120332904577</v>
+        <v>0.1523479336297086</v>
       </c>
       <c r="J9">
-        <v>0.1505120332904577</v>
+        <v>0.1523479336297086</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>334.775132</v>
       </c>
       <c r="O9">
-        <v>0.7509284844884279</v>
+        <v>0.769602070219672</v>
       </c>
       <c r="P9">
-        <v>0.7509284844884279</v>
+        <v>0.7696020702196722</v>
       </c>
       <c r="Q9">
         <v>405.189389838956</v>
@@ -1004,10 +1004,10 @@
         <v>3646.704508550604</v>
       </c>
       <c r="S9">
-        <v>0.1130237730560752</v>
+        <v>0.117247285115113</v>
       </c>
       <c r="T9">
-        <v>0.1130237730560752</v>
+        <v>0.117247285115113</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>10.892997</v>
       </c>
       <c r="I10">
-        <v>0.1505120332904577</v>
+        <v>0.1523479336297086</v>
       </c>
       <c r="J10">
-        <v>0.1505120332904577</v>
+        <v>0.1523479336297086</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,16 +1048,16 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>31.11253633333334</v>
+        <v>31.11253633333333</v>
       </c>
       <c r="N10">
-        <v>93.33760900000001</v>
+        <v>93.337609</v>
       </c>
       <c r="O10">
-        <v>0.2093640254979974</v>
+        <v>0.2145703496153182</v>
       </c>
       <c r="P10">
-        <v>0.2093640254979974</v>
+        <v>0.2145703496153182</v>
       </c>
       <c r="Q10">
         <v>112.969588313797</v>
@@ -1066,10 +1066,10 @@
         <v>1016.726294824173</v>
       </c>
       <c r="S10">
-        <v>0.03151180517557883</v>
+        <v>0.03268934938209787</v>
       </c>
       <c r="T10">
-        <v>0.03151180517557883</v>
+        <v>0.03268934938209788</v>
       </c>
     </row>
   </sheetData>
